--- a/biology/Botanique/Oé/Oé.xlsx
+++ b/biology/Botanique/Oé/Oé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O%C3%A9</t>
+          <t>Oé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oé est une marque de vins, créée en 2015 par François-Xavier Henry et Thomas Lemasle. Elle propose des vins bios, zéro pesticide et vegans.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O%C3%A9</t>
+          <t>Oé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2015, François-Xavier Henry et Thomas Lemasle créent PinotBleu. La marque propose des vins de vignerons et de vigneronnes bios, zéro pesticide et vegans, produits majoritairement en France.
-PinotBleu change de nom  en 2019 et devient Oé[1],[2]. Oé annonce cette même année le lancement de ses trois premiers vins, élaborés avec des vignerons engagés dans une démarche biologique[3] et vendus en ligne[4].
-Oé bénéficie en 2020 d'une levée de fonds de 2,5 millions d'euros[5] et relance la bouteille de vin consignée[6],[7],[8] devenant ainsi une des premières marques dans le domaine du vin à remettre en place cette pratique ancienne. Pour souligner ce lancement, la Revue du vin de France leur accorde le grand prix de l'innovation environnementale[9].
-En 2021, Oé obtient le prix Top/Com OR dans la catégorie Relations presse corporate pour le lancement médiatique de la start-up[10].
+PinotBleu change de nom  en 2019 et devient Oé,. Oé annonce cette même année le lancement de ses trois premiers vins, élaborés avec des vignerons engagés dans une démarche biologique et vendus en ligne.
+Oé bénéficie en 2020 d'une levée de fonds de 2,5 millions d'euros et relance la bouteille de vin consignée devenant ainsi une des premières marques dans le domaine du vin à remettre en place cette pratique ancienne. Pour souligner ce lancement, la Revue du vin de France leur accorde le grand prix de l'innovation environnementale.
+En 2021, Oé obtient le prix Top/Com OR dans la catégorie Relations presse corporate pour le lancement médiatique de la start-up.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O%C3%A9</t>
+          <t>Oé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Certifications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Oé est une entreprise certifiée B Corp depuis 2017 et ses vins sont certifiés bios et Eve Vegan. En 2021, Oé devient entreprise à mission.
 </t>
